--- a/data_set/log_files/被験者リスト.xlsx
+++ b/data_set/log_files/被験者リスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\log_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47E752-A3FB-4522-8B83-61AB710F07D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E8F53-CFE8-415E-AFC0-CA0431F44941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>実験番号</t>
     <rPh sb="0" eb="4">
@@ -58,6 +58,125 @@
     <t>小林</t>
     <rPh sb="0" eb="2">
       <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百合草</t>
+    <rPh sb="0" eb="3">
+      <t>ユリクサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早川</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村儀</t>
+    <rPh sb="0" eb="2">
+      <t>ムラギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イヤホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田畑</t>
+    <rPh sb="0" eb="2">
+      <t>タバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山中</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市原</t>
+    <rPh sb="0" eb="2">
+      <t>イチハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廣川</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉田</t>
+    <rPh sb="0" eb="2">
+      <t>クラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長瀬</t>
+    <rPh sb="0" eb="2">
+      <t>ナガセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志田原</t>
+    <rPh sb="0" eb="3">
+      <t>シダハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢野</t>
+    <rPh sb="0" eb="2">
+      <t>ヤノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,8 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -384,20 +504,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -405,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -413,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -421,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -429,64 +558,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data_set/log_files/被験者リスト.xlsx
+++ b/data_set/log_files/被験者リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\log_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E8F53-CFE8-415E-AFC0-CA0431F44941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAACCB7-AB0C-49B0-BDF5-7D1C71C245D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
